--- a/biology/Médecine/Processus_xiphoïde/Processus_xiphoïde.xlsx
+++ b/biology/Médecine/Processus_xiphoïde/Processus_xiphoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Processus_xipho%C3%AFde</t>
+          <t>Processus_xiphoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le processus xiphoïde (ou apophyse xiphoïde ou  appendice xiphoïde ou appendice ensiforme ou pointe du sternum ou processus ensiforme ou xiphisternum)[1],[2], est une structure osseuse ou cartilagineuse qui se situe à la partie inférieure du sternum. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le processus xiphoïde (ou apophyse xiphoïde ou  appendice xiphoïde ou appendice ensiforme ou pointe du sternum ou processus ensiforme ou xiphisternum) est une structure osseuse ou cartilagineuse qui se situe à la partie inférieure du sternum. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Processus_xipho%C3%AFde</t>
+          <t>Processus_xiphoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus xiphoïde est relié à la base du corps du sternum par la synchondrose xipho-sternale et se projette au niveau de la dixième vertèbre thoracique (T10).
 Il est de forme triangulaire avec sa base reliée au corps du sternum.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Processus_xipho%C3%AFde</t>
+          <t>Processus_xiphoïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus xiphoïde a son propre point d'ossification au sein de la lame cartilagineuse à l'origine du sternum.
 Le processus xiphoïde peut se joindre au corps avant l'âge de trente ans, mais cela se produit plus fréquemment après quarante ans. Quelquefois il reste désuni toute la vie.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Processus_xipho%C3%AFde</t>
+          <t>Processus_xiphoïde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,11 +595,13 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En pathologie, il est surtout concerné par les fractures qui peuvent l'atteindre au cours d'un violent choc thoracique.
 Des compressions thoraciques mal effectuées pendant une réanimation cardiopulmonaire peuvent provoquer la rupture du processus xiphoïde, le conduisant dans le foie, ce qui peut provoquer une hémorragie mortelle.
-À partir de la quarantaine, il arrive que les personnes réalisent l'existence de leur processus xiphoïde à la suite de son ossification, et pensent qu'il s'agit d'une anomalie[3].
+À partir de la quarantaine, il arrive que les personnes réalisent l'existence de leur processus xiphoïde à la suite de son ossification, et pensent qu'il s'agit d'une anomalie.
 </t>
         </is>
       </c>
